--- a/docs/research/PRISMA_template.xlsx
+++ b/docs/research/PRISMA_template.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marak\OneDrive\Робочий стіл\УДУНТ\Гурток\Команда 2 Векторні бази даних\git\semantic-search-rpd\docs\research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marak\OneDrive\Робочий стіл\УДУНТ\Гурток\Векторні бази даних\git\docs\research\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52827BBC-8484-4CF0-80D7-05EBE8A29B59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8627BBF2-7313-43CD-8FB1-459F09463687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Протокол пошуку" sheetId="1" r:id="rId1"/>
     <sheet name="Відібрані роботи" sheetId="2" r:id="rId2"/>
-    <sheet name="Інструкція" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -50,9 +49,6 @@
     <t>Примітки</t>
   </si>
   <si>
-    <t>Автори</t>
-  </si>
-  <si>
     <t>Рік</t>
   </si>
   <si>
@@ -62,101 +58,17 @@
     <t>DOI / URL</t>
   </si>
   <si>
-    <t>Короткий зміст / Анотація</t>
-  </si>
-  <si>
-    <t>ІНСТРУКЦІЯ З ЗАПОВНЕННЯ</t>
-  </si>
-  <si>
-    <t>1. ПРОТОКОЛ ПОШУКУ (аркуш 'Протокол пошуку')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Фіксуйте КОЖЕН пошуковий запит, який виконуєте:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Дата: у форматі РРРР-ММ-ДД</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - База даних: Google Scholar (або інша)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Кількість результатів: загальна кількість знайдених</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Релевантних: скільки відібрано за назвою для детального перегляду</t>
-  </si>
-  <si>
-    <t>2. ВІДІБРАНІ РОБОТИ (аркуш 'Відібрані роботи')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Детальна інформація про кожну релевантну роботу:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Автори: прізвище та ініціали всіх авторів</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Рік: рік публікації</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Назва: повна назва роботи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - DOI/URL: посилання для доступу</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Зміст: 2-3 речення про що робота</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Використовуйте комбінації:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - "semantic search" AND "vector database"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - "text embeddings" AND "information retrieval"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - "sentence transformers" OR "sentence embeddings"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - "ChromaDB" OR "Pinecone" OR "Milvus" OR "vector store"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - "chunking strategies" AND "embeddings"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - "multilingual embeddings" OR "cross-lingual"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Сортування: за релевантністю або за датою</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Мова: англійська (основна), українська (додатково)</t>
-  </si>
-  <si>
     <t>Релевантних за назвою і анотацією</t>
   </si>
   <si>
-    <t xml:space="preserve">   - Пошуковий запит: точний текст запиту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Після фільтрації: скільки залишилось після обмеження роками (2010-2026)</t>
-  </si>
-  <si>
-    <t>3. РЕКОМЕНДОВАНІ ПОШУКОВІ ЗАПИТИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - Рік публікації: 2010-2026</t>
-  </si>
-  <si>
-    <t>4. ФІЛЬТРИ В GOOGLE SCHOLAR</t>
+    <t>Номер запиту</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,11 +79,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -215,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -223,8 +130,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -532,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -567,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
@@ -579,11 +484,11 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="5"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -700,22 +605,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="50" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
-    <col min="6" max="6" width="60" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,27 +634,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+    </row>
+    <row r="2" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -757,10 +654,8 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -768,10 +663,8 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -779,10 +672,8 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -790,10 +681,8 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -801,10 +690,8 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -812,10 +699,8 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -823,10 +708,8 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -834,10 +717,8 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -845,10 +726,8 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -856,10 +735,8 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -867,10 +744,8 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -878,10 +753,8 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -889,10 +762,8 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -900,10 +771,8 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -911,10 +780,8 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -922,10 +789,8 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -933,10 +798,8 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -944,10 +807,8 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -955,10 +816,8 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -966,10 +825,8 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -977,10 +834,8 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -988,10 +843,8 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -999,10 +852,8 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1010,10 +861,8 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1021,10 +870,8 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1032,10 +879,8 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1043,10 +888,8 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1054,10 +897,8 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1065,10 +906,8 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -1076,10 +915,8 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -1087,10 +924,8 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -1098,10 +933,8 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1109,10 +942,8 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -1120,10 +951,8 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -1131,10 +960,8 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -1142,10 +969,8 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -1153,10 +978,8 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -1164,10 +987,8 @@
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -1175,10 +996,8 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -1186,10 +1005,8 @@
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -1197,10 +1014,8 @@
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -1208,10 +1023,8 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -1219,10 +1032,8 @@
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -1230,10 +1041,8 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -1241,10 +1050,8 @@
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -1252,10 +1059,8 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1263,10 +1068,8 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1274,10 +1077,8 @@
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1285,10 +1086,8 @@
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1296,164 +1095,6 @@
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="80" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
